--- a/classfiers/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
+++ b/classfiers/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999810964083176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9978401727861772</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9623430962343096</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9808102345415778</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9822716965574109</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.9956709956709957</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9978308026030369</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.9964272211720228</v>
+        <v>0.9997553171466215</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9236947791164659</v>
+        <v>0.8492647058823529</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9603340292275575</v>
+        <v>0.9184890656063619</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991304347826087</v>
+        <v>0.9959909655561829</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9703912275758414</v>
+        <v>0.9498754299320928</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9847860664989044</v>
+        <v>0.9733091377217979</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991077504725897</v>
+        <v>0.9956035958520431</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
+++ b/classfiers/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9997721576668944</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9956896551724138</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9978401727861772</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9545454545454545</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9822716965574109</v>
+        <v>0.9932558669400775</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997553171466215</v>
+        <v>0.9936431989063569</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8492647058823529</v>
+        <v>0.806949806949807</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9184890656063619</v>
+        <v>0.8931623931623932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9959909655561829</v>
+        <v>0.9904077287607885</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9498754299320928</v>
+        <v>0.9404460968988726</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9980861244019138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9733091377217979</v>
+        <v>0.9669672432830329</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9956035958520431</v>
+        <v>0.9954157904548234</v>
       </c>
     </row>
   </sheetData>
